--- a/BalanceSheet/DDOG_bal.xlsx
+++ b/BalanceSheet/DDOG_bal.xlsx
@@ -606,19 +606,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>133000.0</v>
+        <v>21000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3714000.0</v>
+        <v>21000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4083000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-1391000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-1729000.0</v>
+        <v>15000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>18992000.0</v>
